--- a/import letter of credit test case of globe team.xlsx
+++ b/import letter of credit test case of globe team.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trade_Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A807EAB-220A-4709-834D-1E35767E4E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832E4B3-F3C8-44A7-8FC3-3AC24A5F9303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
 </t>
   </si>
   <si>
-    <t>no need to generate MT752(just for complied docs need this).</t>
-  </si>
-  <si>
     <t>paying complied documents (payment).</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>23field: this field includes specific options(accept, debit, negotiate..) configure it.</t>
+  </si>
+  <si>
+    <t>no need to generate MT752(just for non complied docs need this).</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="41.25" customHeight="1">
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.75" customHeight="1">
@@ -966,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>27</v>
@@ -1034,16 +1034,16 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25" customHeight="1">
@@ -1051,16 +1051,16 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7">
         <v>45384</v>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="7">
         <v>45384</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="7">
         <v>45475</v>
@@ -1119,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="7">
         <v>45475</v>
@@ -1136,13 +1136,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>55</v>
       </c>
       <c r="E24" s="7">
         <v>45598</v>

--- a/import letter of credit test case of globe team.xlsx
+++ b/import letter of credit test case of globe team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832E4B3-F3C8-44A7-8FC3-3AC24A5F9303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E393F-8CE1-4315-9CB4-D5B1F395ACC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>fixing the commission in issuance event for multiple quarters</t>
   </si>
@@ -124,9 +124,6 @@
     <t>reinstate lc</t>
   </si>
   <si>
-    <t>when amendment event needs beneficiary approval, the approval event is not working, we couldn't complete it.</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>amendment event: any type of lc amend</t>
   </si>
   <si>
-    <t>the amendment commission should be configured and applied for all types of amendment.</t>
-  </si>
-  <si>
     <t>MT732 advise of discharge</t>
   </si>
   <si>
@@ -223,6 +217,21 @@
   </si>
   <si>
     <t>no need to generate MT752(just for non complied docs need this).</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>needs configured correctly 200EUR not 20EUR.</t>
+  </si>
+  <si>
+    <t>latest test</t>
+  </si>
+  <si>
+    <t>19-2-2024</t>
+  </si>
+  <si>
+    <t>voucher entries to be fixed.</t>
   </si>
 </sst>
 </file>
@@ -274,7 +283,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -428,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -460,6 +475,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,12 +771,14 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="60.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="79.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -767,7 +788,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -777,7 +798,7 @@
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -787,7 +808,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -800,14 +821,17 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="41.25" customHeight="1">
+      <c r="F4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.25" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -815,19 +839,22 @@
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.75" customHeight="1">
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1">
       <c r="A6">
         <v>2</v>
       </c>
@@ -835,50 +862,59 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.5" customHeight="1">
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="49.5" customHeight="1">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="75.75" customHeight="1">
+      <c r="F7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75.75" customHeight="1">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="37.5" customHeight="1">
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" customHeight="1">
       <c r="A9">
         <v>5</v>
       </c>
@@ -891,11 +927,11 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1">
+    <row r="10" spans="1:7" ht="33" customHeight="1">
       <c r="A10">
         <v>6</v>
       </c>
@@ -906,164 +942,181 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="36" customHeight="1">
+    <row r="11" spans="1:7" ht="36" customHeight="1">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
+      <c r="C11" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="63.75" customHeight="1">
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="63.75" customHeight="1">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
+      <c r="C13" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
+        <v>28</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="23.25" customHeight="1">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1074,13 +1127,13 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="7">
+        <v>45</v>
+      </c>
+      <c r="E20" s="16">
         <v>45384</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1091,60 +1144,66 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="7">
+        <v>46</v>
+      </c>
+      <c r="E21" s="16">
         <v>45384</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="7">
+        <v>50</v>
+      </c>
+      <c r="E22" s="16">
         <v>45475</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7">
+        <v>49</v>
+      </c>
+      <c r="E23" s="16">
         <v>45475</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="7">
+        <v>52</v>
+      </c>
+      <c r="E24" s="16">
         <v>45598</v>
       </c>
     </row>
